--- a/Actual Sale.xlsx
+++ b/Actual Sale.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbe64d8e92682174/Desktop/LXB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_F25DC773A252ABDACC1048B7711956AA5ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F39439F9-85EC-4C61-B330-A4FD0CC587E7}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_F25DC773A252ABDACC1048B7711956AA5ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89A52CAC-E9EA-460C-B86D-DCF2A7177C7A}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Time</t>
   </si>
@@ -109,6 +109,15 @@
   </si>
   <si>
     <t>Case 15</t>
+  </si>
+  <si>
+    <t>Case 16</t>
+  </si>
+  <si>
+    <t>Case 17</t>
+  </si>
+  <si>
+    <t>Case 18</t>
   </si>
 </sst>
 </file>
@@ -447,15 +456,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -504,8 +513,17 @@
       <c r="P1" t="s">
         <v>27</v>
       </c>
+      <c r="Q1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -554,8 +572,17 @@
       <c r="P2" s="2">
         <v>455</v>
       </c>
+      <c r="Q2" s="2">
+        <v>671</v>
+      </c>
+      <c r="R2" s="2">
+        <v>393</v>
+      </c>
+      <c r="S2" s="2">
+        <v>255</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -604,8 +631,17 @@
       <c r="P3" s="2">
         <v>918</v>
       </c>
+      <c r="Q3" s="2">
+        <v>1222</v>
+      </c>
+      <c r="R3" s="2">
+        <v>331</v>
+      </c>
+      <c r="S3" s="2">
+        <v>498</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -654,8 +690,17 @@
       <c r="P4" s="2">
         <v>495</v>
       </c>
+      <c r="Q4" s="2">
+        <v>621</v>
+      </c>
+      <c r="R4" s="2">
+        <v>264</v>
+      </c>
+      <c r="S4" s="2">
+        <v>324</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -704,8 +749,17 @@
       <c r="P5" s="2">
         <v>661</v>
       </c>
+      <c r="Q5" s="2">
+        <v>674</v>
+      </c>
+      <c r="R5" s="2">
+        <v>327</v>
+      </c>
+      <c r="S5" s="2">
+        <v>389</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -754,8 +808,17 @@
       <c r="P6" s="2">
         <v>660</v>
       </c>
+      <c r="Q6" s="2">
+        <v>483</v>
+      </c>
+      <c r="R6" s="2">
+        <v>324</v>
+      </c>
+      <c r="S6" s="2">
+        <v>247</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -804,8 +867,17 @@
       <c r="P7" s="2">
         <v>584</v>
       </c>
+      <c r="Q7" s="2">
+        <v>533</v>
+      </c>
+      <c r="R7" s="2">
+        <v>171</v>
+      </c>
+      <c r="S7" s="2">
+        <v>275</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -854,8 +926,17 @@
       <c r="P8" s="2">
         <v>580</v>
       </c>
+      <c r="Q8" s="2">
+        <v>687</v>
+      </c>
+      <c r="R8" s="2">
+        <v>171</v>
+      </c>
+      <c r="S8" s="2">
+        <v>343</v>
+      </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -904,8 +985,17 @@
       <c r="P9" s="2">
         <v>863</v>
       </c>
+      <c r="Q9" s="2">
+        <v>907</v>
+      </c>
+      <c r="R9" s="2">
+        <v>223</v>
+      </c>
+      <c r="S9" s="2">
+        <v>404</v>
+      </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -954,8 +1044,17 @@
       <c r="P10" s="2">
         <v>887</v>
       </c>
+      <c r="Q10" s="2">
+        <v>546</v>
+      </c>
+      <c r="R10" s="2">
+        <v>222</v>
+      </c>
+      <c r="S10" s="2">
+        <v>373</v>
+      </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1004,8 +1103,17 @@
       <c r="P11" s="2">
         <v>806</v>
       </c>
+      <c r="Q11" s="2">
+        <v>435</v>
+      </c>
+      <c r="R11" s="2">
+        <v>219</v>
+      </c>
+      <c r="S11" s="2">
+        <v>393</v>
+      </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1054,8 +1162,17 @@
       <c r="P12" s="2">
         <v>880</v>
       </c>
+      <c r="Q12" s="2">
+        <v>327</v>
+      </c>
+      <c r="R12" s="2">
+        <v>203</v>
+      </c>
+      <c r="S12" s="2">
+        <v>289</v>
+      </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1103,6 +1220,15 @@
       </c>
       <c r="P13" s="2">
         <v>858</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>436</v>
+      </c>
+      <c r="R13" s="2">
+        <v>214</v>
+      </c>
+      <c r="S13" s="2">
+        <v>370</v>
       </c>
     </row>
   </sheetData>
